--- a/07_振り返り/51_開発体験シート.xlsx
+++ b/07_振り返り/51_開発体験シート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B140B8-FDD8-4E86-AE03-B6FFC934A261}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F412133-1CEB-498A-8903-BD9213BC68A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="80">
   <si>
     <t>体験項目</t>
     <rPh sb="0" eb="2">
@@ -781,6 +781,77 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>キカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復を通じて品質が向上していった。</t>
+    <rPh sb="0" eb="2">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒンシツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それぞれの担当タスクをグループで共有できた。</t>
+    <rPh sb="5" eb="7">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユースケース図におけるユースケースの分け方を学んだ。</t>
+    <rPh sb="6" eb="7">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>マナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一人で行えないことに気づいたので復習する。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>統合テストとの違いを検討できた。</t>
+    <rPh sb="0" eb="2">
+      <t>トウゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケントウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1960,10 +2031,10 @@
   <dimension ref="B7:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
+      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2015,13 +2086,17 @@
       <c r="E9" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="37"/>
+      <c r="F9" s="37" t="s">
+        <v>58</v>
+      </c>
       <c r="G9" s="37"/>
       <c r="H9" s="50" t="str">
         <f>IF(COUNTIF(E9:G9,"*●*"),"●",IF(COUNTIF(E9:G9,"*○*"),"○","－"))</f>
         <v>○</v>
       </c>
-      <c r="I9" s="11"/>
+      <c r="I9" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="10" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="66"/>
@@ -2034,7 +2109,9 @@
       <c r="E10" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="38"/>
+      <c r="F10" s="38" t="s">
+        <v>56</v>
+      </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38" t="str">
         <f t="shared" ref="H10:H37" si="0">IF(COUNTIF(E10:G10,"*●*"),"●",IF(COUNTIF(E10:G10,"*○*"),"○","－"))</f>
@@ -2055,7 +2132,9 @@
       <c r="E11" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="39"/>
+      <c r="F11" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G11" s="39"/>
       <c r="H11" s="41" t="str">
         <f t="shared" si="0"/>
@@ -2078,7 +2157,9 @@
       <c r="E12" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="41"/>
+      <c r="F12" s="41" t="s">
+        <v>56</v>
+      </c>
       <c r="G12" s="41"/>
       <c r="H12" s="50" t="str">
         <f t="shared" si="0"/>
@@ -2099,7 +2180,9 @@
       <c r="E13" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="38"/>
+      <c r="F13" s="38" t="s">
+        <v>56</v>
+      </c>
       <c r="G13" s="38"/>
       <c r="H13" s="38" t="str">
         <f t="shared" si="0"/>
@@ -2120,7 +2203,9 @@
       <c r="E14" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="44"/>
+      <c r="F14" s="44" t="s">
+        <v>58</v>
+      </c>
       <c r="G14" s="44"/>
       <c r="H14" s="51" t="str">
         <f t="shared" si="0"/>
@@ -2141,7 +2226,9 @@
       <c r="E15" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="41"/>
+      <c r="F15" s="41" t="s">
+        <v>56</v>
+      </c>
       <c r="G15" s="41"/>
       <c r="H15" s="50" t="str">
         <f t="shared" si="0"/>
@@ -2162,7 +2249,9 @@
       <c r="E16" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="38"/>
+      <c r="F16" s="38" t="s">
+        <v>56</v>
+      </c>
       <c r="G16" s="38"/>
       <c r="H16" s="38" t="str">
         <f>IF(COUNTIF(E16:G16,"*●*"),"●",IF(COUNTIF(E16:G16,"*○*"),"○","－"))</f>
@@ -2180,8 +2269,12 @@
       <c r="D17" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
+      <c r="E17" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>58</v>
+      </c>
       <c r="G17" s="48"/>
       <c r="H17" s="51" t="str">
         <f t="shared" si="0"/>
@@ -2202,7 +2295,9 @@
       <c r="E18" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="37"/>
+      <c r="F18" s="37" t="s">
+        <v>58</v>
+      </c>
       <c r="G18" s="37"/>
       <c r="H18" s="50" t="str">
         <f>IF(COUNTIF(E18:G18,"*●*"),"●",IF(COUNTIF(E18:G18,"*○*"),"○","－"))</f>
@@ -2221,7 +2316,9 @@
       <c r="E19" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="39"/>
+      <c r="F19" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="G19" s="39"/>
       <c r="H19" s="38" t="str">
         <f t="shared" si="0"/>
@@ -2244,13 +2341,17 @@
       <c r="E20" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="41"/>
+      <c r="F20" s="41" t="s">
+        <v>56</v>
+      </c>
       <c r="G20" s="41"/>
       <c r="H20" s="50" t="str">
         <f>IF(COUNTIF(E20:G20,"*●*"),"●",IF(COUNTIF(E20:G20,"*○*"),"○","－"))</f>
-        <v>－</v>
-      </c>
-      <c r="I20" s="4"/>
+        <v>○</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="21" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="59"/>
@@ -2261,13 +2362,17 @@
       <c r="E21" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="38"/>
+      <c r="F21" s="38" t="s">
+        <v>58</v>
+      </c>
       <c r="G21" s="38"/>
       <c r="H21" s="38" t="str">
         <f t="shared" si="0"/>
         <v>－</v>
       </c>
-      <c r="I21" s="8"/>
+      <c r="I21" s="8" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="22" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="59"/>
@@ -2280,7 +2385,9 @@
       <c r="E22" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="38"/>
+      <c r="F22" s="38" t="s">
+        <v>56</v>
+      </c>
       <c r="G22" s="38"/>
       <c r="H22" s="52" t="str">
         <f t="shared" si="0"/>
@@ -2299,13 +2406,17 @@
       <c r="E23" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="38"/>
+      <c r="F23" s="38" t="s">
+        <v>58</v>
+      </c>
       <c r="G23" s="38"/>
       <c r="H23" s="38" t="str">
         <f>IF(COUNTIF(E23:G23,"*●*"),"●",IF(COUNTIF(E23:G23,"*○*"),"○","－"))</f>
         <v>－</v>
       </c>
-      <c r="I23" s="8"/>
+      <c r="I23" s="8" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="24" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="59"/>
@@ -2318,7 +2429,9 @@
       <c r="E24" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="38"/>
+      <c r="F24" s="38" t="s">
+        <v>56</v>
+      </c>
       <c r="G24" s="38"/>
       <c r="H24" s="38" t="str">
         <f t="shared" si="0"/>
@@ -2337,7 +2450,9 @@
       <c r="E25" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="39"/>
+      <c r="F25" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G25" s="39"/>
       <c r="H25" s="41" t="str">
         <f t="shared" si="0"/>
@@ -2360,7 +2475,9 @@
       <c r="E26" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="41"/>
+      <c r="F26" s="41" t="s">
+        <v>57</v>
+      </c>
       <c r="G26" s="41"/>
       <c r="H26" s="50" t="str">
         <f>IF(COUNTIF(E26:G26,"*●*"),"●",IF(COUNTIF(E26:G26,"*○*"),"○","－"))</f>
@@ -2379,7 +2496,9 @@
       <c r="E27" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="38"/>
+      <c r="F27" s="38" t="s">
+        <v>58</v>
+      </c>
       <c r="G27" s="38"/>
       <c r="H27" s="38" t="str">
         <f t="shared" si="0"/>
@@ -2398,7 +2517,9 @@
       <c r="E28" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="39"/>
+      <c r="F28" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G28" s="39"/>
       <c r="H28" s="41" t="str">
         <f t="shared" si="0"/>
@@ -2421,7 +2542,9 @@
       <c r="E29" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="41"/>
+      <c r="F29" s="41" t="s">
+        <v>56</v>
+      </c>
       <c r="G29" s="41"/>
       <c r="H29" s="50" t="str">
         <f>IF(COUNTIF(E29:G29,"*●*"),"●",IF(COUNTIF(E29:G29,"*○*"),"○","－"))</f>
@@ -2440,7 +2563,9 @@
       <c r="E30" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="38"/>
+      <c r="F30" s="38" t="s">
+        <v>56</v>
+      </c>
       <c r="G30" s="38"/>
       <c r="H30" s="38" t="str">
         <f t="shared" si="0"/>
@@ -2459,7 +2584,9 @@
       <c r="E31" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="38"/>
+      <c r="F31" s="38" t="s">
+        <v>56</v>
+      </c>
       <c r="G31" s="38"/>
       <c r="H31" s="52" t="str">
         <f t="shared" si="0"/>
@@ -2480,7 +2607,9 @@
       <c r="E32" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="38"/>
+      <c r="F32" s="38" t="s">
+        <v>56</v>
+      </c>
       <c r="G32" s="38"/>
       <c r="H32" s="38" t="str">
         <f>IF(COUNTIF(E32:G32,"*●*"),"●",IF(COUNTIF(E32:G32,"*○*"),"○","－"))</f>
@@ -2499,13 +2628,17 @@
       <c r="E33" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="38"/>
+      <c r="F33" s="38" t="s">
+        <v>56</v>
+      </c>
       <c r="G33" s="38"/>
       <c r="H33" s="38" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
       </c>
-      <c r="I33" s="8"/>
+      <c r="I33" s="8" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="34" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="54"/>
@@ -2516,7 +2649,9 @@
       <c r="E34" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="38"/>
+      <c r="F34" s="38" t="s">
+        <v>58</v>
+      </c>
       <c r="G34" s="38"/>
       <c r="H34" s="52" t="str">
         <f t="shared" si="0"/>
@@ -2537,7 +2672,9 @@
       <c r="E35" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F35" s="40"/>
+      <c r="F35" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="G35" s="40"/>
       <c r="H35" s="38" t="str">
         <f t="shared" si="0"/>
@@ -2556,13 +2693,17 @@
       <c r="E36" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="38"/>
+      <c r="F36" s="38" t="s">
+        <v>56</v>
+      </c>
       <c r="G36" s="38"/>
       <c r="H36" s="38" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
       </c>
-      <c r="I36" s="8"/>
+      <c r="I36" s="8" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="37" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B37" s="55"/>
@@ -2573,13 +2714,17 @@
       <c r="E37" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="39"/>
+      <c r="F37" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G37" s="39"/>
       <c r="H37" s="41" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
       </c>
-      <c r="I37" s="12"/>
+      <c r="I37" s="8" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2607,6 +2752,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2790,7 +2941,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2799,29 +2950,23 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07220D81-6EB3-4F31-A61C-585C3DF49A0C}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F97FC28B-D867-4C4A-AD03-1A4599EB8B23}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>